--- a/cleaned 2019.xlsx
+++ b/cleaned 2019.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Azubi_2\Project_1\India_Startup_Funding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Azubi_2\Indian-startup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEECCAB-B73A-4DF2-A259-806AAFDE8D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07B8C0F-164A-498A-9582-703F8955A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="439">
   <si>
     <t>Company Name</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>Seed round</t>
-  </si>
-  <si>
-    <t>Pre-series A</t>
   </si>
   <si>
     <t>Bangalore</t>
@@ -1463,18 +1460,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA114DEC-100F-4FE8-A835-006DBE5DC541}" name="Table1" displayName="Table1" ref="A1:I90" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:I90" xr:uid="{BA114DEC-100F-4FE8-A835-006DBE5DC541}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{265E473D-D406-4439-844A-1220FB760DC3}" name="Table1" displayName="Table1" ref="A1:I90" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:I90" xr:uid="{265E473D-D406-4439-844A-1220FB760DC3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FA7F8DB4-B3AB-4082-8F62-F387990D6A6E}" name="Company Name"/>
-    <tableColumn id="2" xr3:uid="{1746716C-F6FB-408E-9B1A-60DB0F6DD4BA}" name="Sector"/>
-    <tableColumn id="3" xr3:uid="{27031915-0CBB-4E99-9592-ACA0AB5A663A}" name="Series"/>
-    <tableColumn id="4" xr3:uid="{EF51F371-60D1-47B5-8C2E-4C764FEBC65E}" name="City"/>
-    <tableColumn id="5" xr3:uid="{64DAB071-A1AE-4586-B469-5A033E51A087}" name="Founded"/>
-    <tableColumn id="6" xr3:uid="{5B496A97-E455-4C21-B866-51A1BBF55534}" name="What it does"/>
-    <tableColumn id="7" xr3:uid="{A3D8882D-6CD3-486E-949A-600240AA4328}" name="Founders"/>
-    <tableColumn id="8" xr3:uid="{580BD47C-AA86-4FE5-9F6F-3D87DBDC2553}" name="Investor"/>
-    <tableColumn id="9" xr3:uid="{14D9961B-5F42-435E-968A-C89A3A7438F9}" name="Amount($)"/>
+    <tableColumn id="1" xr3:uid="{8EE8D58E-B682-4F40-9A9B-61F064B680A3}" name="Company Name"/>
+    <tableColumn id="2" xr3:uid="{D3C6B53D-81F4-4D56-845C-42EA6103B2EA}" name="Sector"/>
+    <tableColumn id="3" xr3:uid="{C301E1D8-94D0-4F2B-B1CA-E57B432AA324}" name="Series"/>
+    <tableColumn id="4" xr3:uid="{AA1490D9-1DAB-42E5-B9CF-E2EDF1A949E3}" name="City"/>
+    <tableColumn id="5" xr3:uid="{08BC3C66-EFAE-46D5-810A-9F1C01E23756}" name="Founded"/>
+    <tableColumn id="6" xr3:uid="{0196EC51-94DF-4ED2-8747-53B3C0359DD1}" name="What it does"/>
+    <tableColumn id="7" xr3:uid="{F58DF1AA-D83E-4E55-855C-CDBE70677F55}" name="Founders"/>
+    <tableColumn id="8" xr3:uid="{E1D9442F-3F27-4D31-8883-00A73A8F4358}" name="Investor"/>
+    <tableColumn id="9" xr3:uid="{6543C2F5-0D08-4AE9-9D33-6EA2644429C2}" name="Amount($)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1804,7 +1801,7 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1857,19 +1854,19 @@
         <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2">
         <v>2015</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I2">
         <v>6300000</v>
@@ -1886,19 +1883,19 @@
         <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3">
         <v>2014</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I3">
         <v>150000000</v>
@@ -1915,19 +1912,19 @@
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4">
         <v>2015</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I4">
         <v>28000000</v>
@@ -1944,19 +1941,19 @@
         <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5">
         <v>2014</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5">
         <v>30000000</v>
@@ -1973,19 +1970,19 @@
         <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>2004</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I6">
         <v>6000000</v>
@@ -2002,19 +1999,19 @@
         <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <v>2015</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2031,19 +2028,19 @@
         <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8">
         <v>2015</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2060,19 +2057,19 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>2013</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I9">
         <v>1000000</v>
@@ -2089,19 +2086,19 @@
         <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>2015</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I10">
         <v>20000000</v>
@@ -2118,19 +2115,19 @@
         <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11">
         <v>2010</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I11">
         <v>275000000</v>
@@ -2147,19 +2144,19 @@
         <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12">
         <v>2010</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2176,19 +2173,19 @@
         <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13">
         <v>2015</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I13">
         <v>22000000</v>
@@ -2205,19 +2202,19 @@
         <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14">
         <v>2018</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I14">
         <v>5000000</v>
@@ -2234,19 +2231,19 @@
         <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15">
         <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I15">
         <v>140500</v>
@@ -2263,19 +2260,19 @@
         <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16">
         <v>2015</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2292,19 +2289,19 @@
         <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17">
         <v>2017</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I17">
         <v>5000000</v>
@@ -2321,19 +2318,19 @@
         <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18">
         <v>2011</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I18">
         <v>540000000</v>
@@ -2350,19 +2347,19 @@
         <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19">
         <v>2015</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I19">
         <v>15000000</v>
@@ -2379,19 +2376,19 @@
         <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20">
         <v>2014</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I20">
         <v>182700</v>
@@ -2408,19 +2405,19 @@
         <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21">
         <v>2018</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2437,19 +2434,19 @@
         <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22">
         <v>2015</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I22">
         <v>5000000</v>
@@ -2466,19 +2463,19 @@
         <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23">
         <v>2018</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I23">
         <v>12000000</v>
@@ -2495,19 +2492,19 @@
         <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24">
         <v>2013</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I24">
         <v>11000000</v>
@@ -2524,19 +2521,19 @@
         <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25">
         <v>2018</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2553,19 +2550,19 @@
         <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26">
         <v>2014</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I26">
         <v>15500000</v>
@@ -2582,19 +2579,19 @@
         <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27">
         <v>2019</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I27">
         <v>1500000</v>
@@ -2611,19 +2608,19 @@
         <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E28">
         <v>2017</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I28">
         <v>5500000</v>
@@ -2640,19 +2637,19 @@
         <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29">
         <v>2015</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I29">
         <v>5000000</v>
@@ -2669,19 +2666,19 @@
         <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30">
         <v>2015</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I30">
         <v>12000000</v>
@@ -2698,19 +2695,19 @@
         <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31">
         <v>2019</v>
       </c>
       <c r="F31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I31">
         <v>2500000</v>
@@ -2727,19 +2724,19 @@
         <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32">
         <v>2015</v>
       </c>
       <c r="F32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I32">
         <v>30000000</v>
@@ -2756,19 +2753,19 @@
         <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33">
         <v>2015</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I33">
         <v>140000</v>
@@ -2785,19 +2782,19 @@
         <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E34">
         <v>2014</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2814,19 +2811,19 @@
         <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E35">
         <v>2011</v>
       </c>
       <c r="F35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I35">
         <v>230000000</v>
@@ -2843,19 +2840,19 @@
         <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36">
         <v>2014</v>
       </c>
       <c r="F36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I36">
         <v>20000000</v>
@@ -2872,19 +2869,19 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37">
         <v>2017</v>
       </c>
       <c r="F37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I37">
         <v>49400000</v>
@@ -2901,19 +2898,19 @@
         <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38">
         <v>2018</v>
       </c>
       <c r="F38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I38">
         <v>32000000</v>
@@ -2930,19 +2927,19 @@
         <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39">
         <v>2015</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I39">
         <v>26000000</v>
@@ -2959,19 +2956,19 @@
         <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E40">
         <v>2016</v>
       </c>
       <c r="F40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I40">
         <v>150000</v>
@@ -2988,19 +2985,19 @@
         <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41">
         <v>2015</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I41">
         <v>400000</v>
@@ -3017,19 +3014,19 @@
         <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42">
         <v>2016</v>
       </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I42">
         <v>2000000</v>
@@ -3046,19 +3043,19 @@
         <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43">
         <v>2015</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I43">
         <v>100000000</v>
@@ -3075,19 +3072,19 @@
         <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44">
         <v>2012</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I44">
         <v>8000000</v>
@@ -3104,19 +3101,19 @@
         <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45">
         <v>2016</v>
       </c>
       <c r="F45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I45">
         <v>1500000</v>
@@ -3133,19 +3130,19 @@
         <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46">
         <v>2015</v>
       </c>
       <c r="F46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I46">
         <v>100000</v>
@@ -3162,19 +3159,19 @@
         <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E47">
         <v>2015</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3191,19 +3188,19 @@
         <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E48">
         <v>2015</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I48">
         <v>50000000</v>
@@ -3220,19 +3217,19 @@
         <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49">
         <v>2015</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I49">
         <v>6000000</v>
@@ -3249,19 +3246,19 @@
         <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50">
         <v>2011</v>
       </c>
       <c r="F50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I50">
         <v>120000000</v>
@@ -3278,19 +3275,19 @@
         <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E51">
         <v>2016</v>
       </c>
       <c r="F51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I51">
         <v>4000000</v>
@@ -3307,19 +3304,19 @@
         <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52">
         <v>2012</v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I52">
         <v>30000000</v>
@@ -3336,19 +3333,19 @@
         <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53">
         <v>2017</v>
       </c>
       <c r="F53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I53">
         <v>4000000</v>
@@ -3365,19 +3362,19 @@
         <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E54">
         <v>2016</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I54">
         <v>1500000</v>
@@ -3394,19 +3391,19 @@
         <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55">
         <v>2015</v>
       </c>
       <c r="F55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I55">
         <v>1000000</v>
@@ -3423,19 +3420,19 @@
         <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E56">
         <v>2015</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H56" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3452,19 +3449,19 @@
         <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57">
         <v>2014</v>
       </c>
       <c r="F57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3481,19 +3478,19 @@
         <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58">
         <v>2015</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I58">
         <v>26000000</v>
@@ -3510,19 +3507,19 @@
         <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59">
         <v>2015</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I59">
         <v>5500000</v>
@@ -3539,19 +3536,19 @@
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60">
         <v>2010</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I60">
         <v>6800000</v>
@@ -3568,19 +3565,19 @@
         <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E61">
         <v>2015</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I61">
         <v>6000000</v>
@@ -3597,19 +3594,19 @@
         <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62">
         <v>2012</v>
       </c>
       <c r="F62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I62">
         <v>36000000</v>
@@ -3626,19 +3623,19 @@
         <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E63">
         <v>2017</v>
       </c>
       <c r="F63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H63" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I63">
         <v>5700000</v>
@@ -3655,19 +3652,19 @@
         <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64">
         <v>2015</v>
       </c>
       <c r="F64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I64">
         <v>50000000</v>
@@ -3684,19 +3681,19 @@
         <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E65">
         <v>2015</v>
       </c>
       <c r="F65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I65">
         <v>2000000</v>
@@ -3713,19 +3710,19 @@
         <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E66">
         <v>2015</v>
       </c>
       <c r="F66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I66">
         <v>5000000</v>
@@ -3742,19 +3739,19 @@
         <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E67">
         <v>2013</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3771,19 +3768,19 @@
         <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E68">
         <v>2015</v>
       </c>
       <c r="F68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H68" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I68">
         <v>100000</v>
@@ -3800,19 +3797,19 @@
         <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E69">
         <v>2013</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I69">
         <v>5500000</v>
@@ -3829,19 +3826,19 @@
         <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E70">
         <v>2015</v>
       </c>
       <c r="F70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I70">
         <v>25000000</v>
@@ -3858,19 +3855,19 @@
         <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E71">
         <v>2016</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I71">
         <v>600000</v>
@@ -3887,19 +3884,19 @@
         <v>161</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E72">
         <v>2015</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I72">
         <v>4000000</v>
@@ -3916,19 +3913,19 @@
         <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E73">
         <v>2015</v>
       </c>
       <c r="F73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I73">
         <v>1500000</v>
@@ -3945,19 +3942,19 @@
         <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E74">
         <v>2008</v>
       </c>
       <c r="F74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G74" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H74" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I74">
         <v>70000000</v>
@@ -3974,19 +3971,19 @@
         <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E75">
         <v>2015</v>
       </c>
       <c r="F75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G75" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I75">
         <v>60000000</v>
@@ -4003,19 +4000,19 @@
         <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E76">
         <v>2014</v>
       </c>
       <c r="F76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H76" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I76">
         <v>6000000</v>
@@ -4032,19 +4029,19 @@
         <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E77">
         <v>2015</v>
       </c>
       <c r="F77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H77" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4061,19 +4058,19 @@
         <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E78">
         <v>2018</v>
       </c>
       <c r="F78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G78" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I78">
         <v>220000</v>
@@ -4090,19 +4087,19 @@
         <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E79">
         <v>2015</v>
       </c>
       <c r="F79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I79">
         <v>2800000</v>
@@ -4119,19 +4116,19 @@
         <v>148</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E80">
         <v>2019</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G80" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H80" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I80">
         <v>2100000</v>
@@ -4148,19 +4145,19 @@
         <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81">
         <v>2015</v>
       </c>
       <c r="F81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I81">
         <v>7000000</v>
@@ -4177,19 +4174,19 @@
         <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82">
         <v>2010</v>
       </c>
       <c r="F82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I82">
         <v>311000000</v>
@@ -4206,19 +4203,19 @@
         <v>148</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E83">
         <v>2013</v>
       </c>
       <c r="F83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I83">
         <v>4800000</v>
@@ -4232,22 +4229,22 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E84">
         <v>2015</v>
       </c>
       <c r="F84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I84">
         <v>1000000</v>
@@ -4264,19 +4261,19 @@
         <v>152</v>
       </c>
       <c r="D85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E85">
         <v>2015</v>
       </c>
       <c r="F85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G85" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H85" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I85">
         <v>1000000</v>
@@ -4293,19 +4290,19 @@
         <v>148</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E86">
         <v>2015</v>
       </c>
       <c r="F86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H86" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I86">
         <v>20000000</v>
@@ -4322,19 +4319,19 @@
         <v>148</v>
       </c>
       <c r="D87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E87">
         <v>2013</v>
       </c>
       <c r="F87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H87" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I87">
         <v>693000000</v>
@@ -4351,19 +4348,19 @@
         <v>154</v>
       </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E88">
         <v>2016</v>
       </c>
       <c r="F88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H88" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I88">
         <v>5000000</v>
@@ -4380,19 +4377,19 @@
         <v>148</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
       <c r="F89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G89" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I89">
         <v>50000000</v>
@@ -4409,19 +4406,19 @@
         <v>148</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
       <c r="F90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I90">
         <v>33000000</v>
